--- a/Stardata.xlsx
+++ b/Stardata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theon\Documents\Important fouders\Wiley Edge Training\week 6\ConstellationLogger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theon\Documents\Important fouders\Wiley Edge Training\week 6 (Full Stack)\ConstellationLogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFD1C75-368E-43D5-A494-ECEBD83B8807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339E620D-8446-4987-9220-EEA4886D9D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7B6FB4FE-618E-4721-8325-17F4B232A6B6}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="758">
   <si>
     <t>Constellation</t>
   </si>
@@ -2496,6 +2496,9 @@
   </si>
   <si>
     <t>Sea monster</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
 </sst>
 </file>
@@ -2901,10 +2904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CB7094-9571-4D0A-8C32-674AD40ACFA1}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2917,7 +2920,7 @@
     <col min="7" max="7" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>168</v>
       </c>
@@ -2942,8 +2945,11 @@
       <c r="H1" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>171</v>
       </c>
@@ -2966,7 +2972,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>264</v>
       </c>
@@ -2989,7 +2995,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>270</v>
       </c>
@@ -3012,7 +3018,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>281</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>276</v>
       </c>
@@ -3058,7 +3064,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3081,7 +3087,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>290</v>
       </c>
@@ -3104,7 +3110,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>295</v>
       </c>
@@ -3127,7 +3133,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>300</v>
       </c>
@@ -3150,7 +3156,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>305</v>
       </c>
@@ -3173,7 +3179,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>310</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>338</v>
       </c>
@@ -3219,7 +3225,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>343</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>349</v>
       </c>
@@ -3265,7 +3271,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>354</v>
       </c>
